--- a/data/trans_dic/P6906-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P6906-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,88; 44,95</t>
+          <t>21,55; 43,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26,24; 53,03</t>
+          <t>25,47; 51,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,58; 61,85</t>
+          <t>30,26; 62,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,24; 44,96</t>
+          <t>15,51; 43,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,04; 40,73</t>
+          <t>14,58; 39,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,77; 48,34</t>
+          <t>19,64; 47,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,12; 55,35</t>
+          <t>24,95; 55,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>26,29; 49,08</t>
+          <t>25,73; 47,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,55; 38,3</t>
+          <t>21,71; 38,94</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>26,18; 45,2</t>
+          <t>25,84; 45,71</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>32,61; 54,94</t>
+          <t>32,14; 54,34</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>23,9; 40,97</t>
+          <t>23,85; 42,17</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,94; 35,98</t>
+          <t>9,48; 36,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,07; 42,43</t>
+          <t>14,15; 43,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,52; 51,93</t>
+          <t>15,73; 54,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,07; 36,33</t>
+          <t>9,66; 36,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,59; 37,16</t>
+          <t>11,03; 37,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,18; 42,5</t>
+          <t>8,95; 44,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,45; 43,63</t>
+          <t>12,71; 44,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19,69; 45,52</t>
+          <t>19,91; 44,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,7; 31,6</t>
+          <t>12,9; 31,39</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,05; 37,48</t>
+          <t>15,27; 36,71</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,55; 41,88</t>
+          <t>16,95; 40,95</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,5; 35,44</t>
+          <t>16,89; 36,08</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,81; 39,59</t>
+          <t>18,95; 38,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,0; 33,21</t>
+          <t>13,23; 32,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,83; 31,95</t>
+          <t>11,17; 32,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,72; 33,05</t>
+          <t>9,28; 35,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,78</t>
+          <t>0,0; 39,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,03; 46,04</t>
+          <t>13,06; 47,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,17; 72,57</t>
+          <t>12,0; 72,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,86; 48,29</t>
+          <t>14,86; 48,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,1; 36,02</t>
+          <t>17,74; 35,58</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,47; 32,43</t>
+          <t>16,07; 32,49</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,17; 34,42</t>
+          <t>12,78; 33,35</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,33; 32,26</t>
+          <t>12,34; 32,25</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,76; 26,59</t>
+          <t>14,78; 27,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,04; 32,28</t>
+          <t>15,25; 31,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,49; 31,84</t>
+          <t>16,64; 31,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,48; 30,2</t>
+          <t>13,92; 29,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,91; 39,9</t>
+          <t>15,93; 39,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,15; 41,54</t>
+          <t>19,83; 42,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,48; 45,18</t>
+          <t>25,2; 45,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,95; 32,64</t>
+          <t>19,03; 32,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,24; 27,21</t>
+          <t>16,6; 26,88</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,72; 32,34</t>
+          <t>18,59; 32,32</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,94; 33,94</t>
+          <t>21,6; 33,84</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,35; 28,74</t>
+          <t>18,36; 29,36</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,74; 24,74</t>
+          <t>5,53; 24,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,91; 43,13</t>
+          <t>13,89; 41,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,5; 19,9</t>
+          <t>3,82; 19,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,06; 17,35</t>
+          <t>1,06; 15,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,04; 28,48</t>
+          <t>8,89; 27,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,44; 50,13</t>
+          <t>19,43; 50,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,59; 38,89</t>
+          <t>14,55; 40,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,08; 26,29</t>
+          <t>7,53; 25,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,43; 22,48</t>
+          <t>9,54; 22,64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,39; 41,34</t>
+          <t>20,12; 40,76</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,83; 23,67</t>
+          <t>9,73; 23,8</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,22; 20,22</t>
+          <t>7,27; 19,73</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>18,68; 26,81</t>
+          <t>18,65; 26,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>21,5; 31,52</t>
+          <t>20,88; 31,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>19,45; 29,0</t>
+          <t>19,25; 29,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,39; 23,34</t>
+          <t>14,76; 24,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,67; 27,71</t>
+          <t>16,67; 27,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,1; 35,86</t>
+          <t>23,69; 36,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,98; 39,47</t>
+          <t>26,65; 39,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,46; 30,34</t>
+          <t>18,06; 30,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>19,21; 25,93</t>
+          <t>19,33; 25,67</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>23,55; 31,38</t>
+          <t>23,65; 31,42</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>23,64; 31,07</t>
+          <t>23,8; 31,32</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>18,43; 25,67</t>
+          <t>18,15; 25,61</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población quesu trabajo le afecta de manera que tiene problemas de sueño</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>20683</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>20916</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>21738</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>12363</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>12095</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>14024</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>18343</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>21652</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>32777</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>34939</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>40081</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>34015</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>14026; 28575</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>14123; 28441</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>14197; 29414</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7107; 19726</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6802; 18534</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8618; 20824</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11460; 25546</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>15255; 28257</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>24257; 43513</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>25663; 45400</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>29839; 50448</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>25070; 44323</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>8408</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>9774</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>9562</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>10020</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>9451</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5759</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7671</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>13344</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>17858</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>15532</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>17233</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>23364</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>4015; 15360</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5144; 15678</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4757; 16582</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>4907; 18525</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4588; 15653</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2382; 11788</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3737; 13199</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>8395; 18906</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>10832; 26358</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>9613; 23113</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>10106; 24421</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>15697; 33532</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>28944</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>17264</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>13199</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>10326</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1744</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9215</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3649</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>30688</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>26479</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>16849</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>15556</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18955; 38638</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10368; 25711</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7474; 22047</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5431; 20482</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6452</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4405; 15973</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1148; 6947</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2651; 8706</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>20630; 41385</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>18010; 36404</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>9769; 25497</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>9425; 24625</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>40829</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>26267</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>32404</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>28707</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>13046</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>20049</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>28732</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>26836</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>53875</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>46316</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>61135</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>55543</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>29691; 54523</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>17706; 37069</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>22777; 42953</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>18550; 39466</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>7955; 19861</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>13278; 28551</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>21186; 38320</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>20124; 34499</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>41623; 67407</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>34020; 59158</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>47734; 74777</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>43879; 70154</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>7824</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>10499</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6732</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3026</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>11309</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>14446</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>12206</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>21611</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>19132</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>24946</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>18939</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>24637</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3540; 15892</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5557; 16687</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2640; 13547</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>544; 8058</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5834; 17922</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>8486; 22261</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>6884; 18965</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>9584; 32364</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>12368; 29346</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>16835; 34109</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>11325; 27703</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>12973; 35193</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>106686</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>84720</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>83635</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>64442</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>47644</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>63492</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>70601</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>88673</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>154330</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>148212</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>154237</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>153115</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>88075; 126925</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>68102; 101429</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>67365; 101921</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>50125; 82915</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>36699; 60513</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>50884; 77900</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>57639; 85697</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>63630; 105808</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>133854; 177728</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>127966; 169978</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>134773; 177346</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>125543; 177173</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P6906-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P6906-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
